--- a/produtos_enriquecido.xlsx
+++ b/produtos_enriquecido.xlsx
@@ -535,8 +535,16 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>MULTILIT</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1.88600000</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
           <t>https://cdn.construdigi.com.br/produtos/10422/10422.jpg</t>

--- a/produtos_enriquecido.xlsx
+++ b/produtos_enriquecido.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,21 +473,6 @@
           <t>Data Emissão</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Marca</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Peso</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Url Imagem</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -523,32 +508,145 @@
       <c r="G2" s="2" t="n">
         <v>45911.17638888889</v>
       </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>MULTILIT</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1.88600000</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>https://cdn.construdigi.com.br/produtos/10422/10422.jpg</t>
-        </is>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>180748</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>TESOURA CORTA VERGALHAO CRV 08*</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>25.0760000000</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7895315017187</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>7895315017187</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>CONSTRUDIGI DISTRIBUIDORA DE MATERIAIS PARA CONSTRUCAO LTDA</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>45911.17638888889</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>153822</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ENGATE TRANC INOX 60</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>17.2500000000</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7898538961114</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>7898538961114</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>CONSTRUDIGI DISTRIBUIDORA DE MATERIAIS PARA CONSTRUCAO LTDA</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>45911.17638888889</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>104218</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>JOELHO ESG 100X90</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>3.7900000000</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7898394632630</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>7898394632630</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>CONSTRUDIGI DISTRIBUIDORA DE MATERIAIS PARA CONSTRUCAO LTDA</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>45911.17638888889</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>104145</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>LUVA AZUL 3/4X1/2</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3.3920000000</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7890001041451</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>LUVA AZUL 3/4X1/2</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>CONSTRUDIGI DISTRIBUIDORA DE MATERIAIS PARA CONSTRUCAO LTDA</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>45911.17638888889</v>
       </c>
     </row>
   </sheetData>

--- a/produtos_enriquecido.xlsx
+++ b/produtos_enriquecido.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,180 +473,62 @@
           <t>Data Emissão</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Marca</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Peso</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Url Imagem</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10422</t>
+          <t>2123</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TUBO PVC ESG 75</t>
+          <t>CORANTE LIQ. PRETO C/12 - XADREZ</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>65.9400000000</t>
+          <t>3.6530000000</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7898394632067</t>
+          <t>SEM GTIN</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7898394632067</t>
+          <t>CORANTE LIQ. PRETO C/12 - XADREZ</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CONSTRUDIGI DISTRIBUIDORA DE MATERIAIS PARA CONSTRUCAO LTDA</t>
+          <t>M.S.B. COMERCIO DE MATERIAIS PARA CONSTRUCAO</t>
         </is>
       </c>
       <c r="G2" s="2" t="n">
-        <v>45911.17638888889</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>180748</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>TESOURA CORTA VERGALHAO CRV 08*</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>25.0760000000</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7895315017187</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>7895315017187</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>CONSTRUDIGI DISTRIBUIDORA DE MATERIAIS PARA CONSTRUCAO LTDA</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>45911.17638888889</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>153822</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ENGATE TRANC INOX 60</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>17.2500000000</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7898538961114</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>7898538961114</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>CONSTRUDIGI DISTRIBUIDORA DE MATERIAIS PARA CONSTRUCAO LTDA</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>45911.17638888889</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>104218</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>JOELHO ESG 100X90</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>3.7900000000</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7898394632630</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>7898394632630</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>CONSTRUDIGI DISTRIBUIDORA DE MATERIAIS PARA CONSTRUCAO LTDA</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>45911.17638888889</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>104145</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>LUVA AZUL 3/4X1/2</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>3.3920000000</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>7890001041451</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>LUVA AZUL 3/4X1/2</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>CONSTRUDIGI DISTRIBUIDORA DE MATERIAIS PARA CONSTRUCAO LTDA</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>45911.17638888889</v>
+        <v>45106.18333333333</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>https://cdn.msbitaqua.com.br/produtos/undefined/undefined.jpg</t>
+        </is>
       </c>
     </row>
   </sheetData>
